--- a/DongAERP/Content/Report/ReportDetailtByPartnerLTForGradationCompare.xlsx
+++ b/DongAERP/Content/Report/ReportDetailtByPartnerLTForGradationCompare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C50F111-4702-4B98-B98A-A105A9297163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB9FA4A-D331-4AC4-B3DC-11CB6047E246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Nguyên tệ</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO  ĐỐI TÁC</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Đơn vi:</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - THEO  ĐỐI TÁC</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="B1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:O4"/>
+      <selection activeCell="B1" sqref="B1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
   <sheetData>
     <row r="1" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="T5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>6</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>0</v>
